--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231385</v>
+        <v>1086.367917189358</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8810000419616699</v>
+        <v>0.9160001277923584</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.1085826636473</v>
+        <v>33.42003702099418</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.97351323924379</v>
+        <v>14.13989615551971</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.469817807045694</v>
+        <v>7.087776323883729</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>656.4299999999355</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.86</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.547112618030862</v>
+        <v>27.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.441553087125037</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.33301651610693</v>
+        <v>10.33301651610638</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,29 +1113,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.0549999999912</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>116.7749999999913</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>114.6749999999946</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>115.334999999992</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>117.75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999501</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999336</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999473</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>150.7449999999917</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3549999999913</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>150.2899999999944</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.0549999999913</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>153.1599999999938</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.3900000000019</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.2450000000015</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>118.5250000000011</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>118.4150000000017</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>122.0349999999991</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>150.7449999999917</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3549999999913</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.2899999999944</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.0549999999913</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>153.1599999999938</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>106.3900000000019</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>114.2450000000015</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>118.5250000000011</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>118.4150000000017</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>122.0349999999991</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>50.74499999999171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>48.35499999999126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>50.28999999999442</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46.05499999999131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.15999999999383</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.390000000001892</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.24500000000145</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.52500000000109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>18.41500000000167</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.03499999999913</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2234,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2245,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2256,20 +2242,9 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
